--- a/Eltec100/Eltec-metadataFLO03122021_revAT.xlsx
+++ b/Eltec100/Eltec-metadataFLO03122021_revAT.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Inprogress\2021 Sciandra Tuzzi Eltec100 per Ondelli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flo-f\Documents\GitHub\ExSTRA\Eltec100\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF3D469-CFCB-4D90-89FC-860D9FB1FC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eltec-metadata" sheetId="1" r:id="rId1"/>
     <sheet name="STAT" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Eltec-metadata'!$A$1:$I$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Eltec-metadata'!$F$1:$F$101</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -957,7 +958,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1069,7 +1070,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Arjuna Tuzzi" refreshedDate="44533.941137268521" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="100">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Arjuna Tuzzi" refreshedDate="44533.941137268521" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="100" xr:uid="{00000000-000A-0000-FFFF-FFFF0B000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I101" sheet="Eltec-metadata"/>
   </cacheSource>
@@ -2318,292 +2319,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot9" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="range">
-  <location ref="A47:C52" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Conteggio di filename" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Somma di tokens" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot8" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="lustro">
-  <location ref="A24:C43" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="25">
-        <item x="15"/>
-        <item x="4"/>
-        <item x="16"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="9"/>
-        <item m="1" x="20"/>
-        <item x="5"/>
-        <item m="1" x="19"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item m="1" x="23"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="22"/>
-        <item x="12"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="8"/>
-        <item m="1" x="21"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="19">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Conteggio di filename" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Somma di tokens" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot7" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="decennio">
-  <location ref="A9:C20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="9"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Conteggio di filename" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Somma di tokens" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot6" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="anno">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Tabella pivot6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="anno">
   <location ref="E3:G60" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -2872,12 +2588,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="genere">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabella pivot1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="genere">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -2929,6 +2648,303 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000004000000}" name="Tabella pivot9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="range">
+  <location ref="A47:C52" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Conteggio di filename" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Somma di tokens" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="Tabella pivot8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="lustro">
+  <location ref="A24:C43" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="25">
+        <item x="15"/>
+        <item x="4"/>
+        <item x="16"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="9"/>
+        <item m="1" x="20"/>
+        <item x="5"/>
+        <item m="1" x="19"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item m="1" x="23"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="22"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item m="1" x="21"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Conteggio di filename" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Somma di tokens" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="Tabella pivot7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="decennio">
+  <location ref="A9:C20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="9"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Conteggio di filename" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Somma di tokens" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -3230,27 +3246,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="66.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3279,7 +3295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3308,7 +3324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3337,7 +3353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -3366,7 +3382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -3395,7 +3411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -3424,7 +3440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -3453,7 +3469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -3482,7 +3498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -3511,7 +3527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -3540,7 +3556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -3569,7 +3585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -3598,7 +3614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -3627,7 +3643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -3656,7 +3672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -3685,7 +3701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -3714,7 +3730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -3743,7 +3759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,7 +3788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -3801,7 +3817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -3830,7 +3846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
@@ -3859,7 +3875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
@@ -3888,7 +3904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
@@ -3917,7 +3933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
@@ -3946,7 +3962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
@@ -3975,7 +3991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
@@ -4004,7 +4020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>86</v>
       </c>
@@ -4033,7 +4049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
@@ -4062,7 +4078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -4091,7 +4107,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
@@ -4120,7 +4136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>95</v>
       </c>
@@ -4149,7 +4165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>98</v>
       </c>
@@ -4178,7 +4194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>100</v>
       </c>
@@ -4207,7 +4223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>103</v>
       </c>
@@ -4236,7 +4252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>105</v>
       </c>
@@ -4265,7 +4281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
@@ -4294,7 +4310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>111</v>
       </c>
@@ -4323,7 +4339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -4352,7 +4368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
@@ -4381,7 +4397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>118</v>
       </c>
@@ -4410,7 +4426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>120</v>
       </c>
@@ -4439,7 +4455,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
@@ -4468,7 +4484,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>126</v>
       </c>
@@ -4497,7 +4513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>129</v>
       </c>
@@ -4526,7 +4542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>131</v>
       </c>
@@ -4555,7 +4571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>133</v>
       </c>
@@ -4584,7 +4600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>136</v>
       </c>
@@ -4592,7 +4608,7 @@
         <v>137</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>11</v>
@@ -4613,7 +4629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>139</v>
       </c>
@@ -4621,7 +4637,7 @@
         <v>137</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>11</v>
@@ -4642,7 +4658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>141</v>
       </c>
@@ -4671,7 +4687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>143</v>
       </c>
@@ -4700,7 +4716,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>147</v>
       </c>
@@ -4729,7 +4745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>149</v>
       </c>
@@ -4758,7 +4774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>152</v>
       </c>
@@ -4787,7 +4803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>155</v>
       </c>
@@ -4816,7 +4832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>158</v>
       </c>
@@ -4845,7 +4861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>160</v>
       </c>
@@ -4874,7 +4890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>162</v>
       </c>
@@ -4903,7 +4919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>165</v>
       </c>
@@ -4932,7 +4948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>168</v>
       </c>
@@ -4961,7 +4977,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>170</v>
       </c>
@@ -4990,7 +5006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>173</v>
       </c>
@@ -5019,7 +5035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>175</v>
       </c>
@@ -5048,7 +5064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>178</v>
       </c>
@@ -5077,7 +5093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>181</v>
       </c>
@@ -5106,7 +5122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>183</v>
       </c>
@@ -5135,7 +5151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>185</v>
       </c>
@@ -5164,7 +5180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>188</v>
       </c>
@@ -5193,7 +5209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>190</v>
       </c>
@@ -5222,7 +5238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>192</v>
       </c>
@@ -5251,7 +5267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>195</v>
       </c>
@@ -5280,7 +5296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>198</v>
       </c>
@@ -5309,7 +5325,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>201</v>
       </c>
@@ -5338,7 +5354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>204</v>
       </c>
@@ -5367,7 +5383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>206</v>
       </c>
@@ -5396,7 +5412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>209</v>
       </c>
@@ -5425,7 +5441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>211</v>
       </c>
@@ -5454,7 +5470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>214</v>
       </c>
@@ -5483,7 +5499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>216</v>
       </c>
@@ -5512,7 +5528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>218</v>
       </c>
@@ -5541,7 +5557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>221</v>
       </c>
@@ -5570,7 +5586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>223</v>
       </c>
@@ -5599,7 +5615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>225</v>
       </c>
@@ -5628,7 +5644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>228</v>
       </c>
@@ -5657,7 +5673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>231</v>
       </c>
@@ -5686,7 +5702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>234</v>
       </c>
@@ -5715,7 +5731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>236</v>
       </c>
@@ -5744,7 +5760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>238</v>
       </c>
@@ -5773,7 +5789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>241</v>
       </c>
@@ -5802,7 +5818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>244</v>
       </c>
@@ -5831,7 +5847,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>247</v>
       </c>
@@ -5860,7 +5876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>249</v>
       </c>
@@ -5889,7 +5905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>252</v>
       </c>
@@ -5918,7 +5934,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>255</v>
       </c>
@@ -5947,7 +5963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>258</v>
       </c>
@@ -5976,7 +5992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>260</v>
       </c>
@@ -6005,7 +6021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>263</v>
       </c>
@@ -6034,7 +6050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>266</v>
       </c>
@@ -6063,7 +6079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>268</v>
       </c>
@@ -6092,7 +6108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>270</v>
       </c>
@@ -6121,7 +6137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>273</v>
       </c>
@@ -6150,7 +6166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>276</v>
       </c>
@@ -6180,6 +6196,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
@@ -6190,118 +6207,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.453125" customWidth="1"/>
-    <col min="9" max="9" width="42.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="56.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="52.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1"/>
+    <col min="9" max="9" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="41" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="47.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="39.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="41.90625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="34.36328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="42.08984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="35.36328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="37.6328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="47.7265625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="44.36328125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="55.36328125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="45.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="40.36328125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="45.81640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="45.08984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="39.1796875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="49.81640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="43.7265625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="44.6328125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="45.6328125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="42.08984375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="51.54296875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="37.1796875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="28" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="39.81640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="46.7265625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="44.26953125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="60.08984375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="70.453125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="55.81640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="39.453125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="40.1796875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="41.7265625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="35.90625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="39" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="38.26953125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="37.81640625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="45.90625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="45" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="39.1796875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="29" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="46.6328125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="38.08984375" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="33" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="31" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="40" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="49.1796875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="40.08984375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="30.6328125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="38.08984375" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="60" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="41.54296875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>300</v>
       </c>
@@ -6321,7 +6338,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>305</v>
       </c>
@@ -6342,7 +6359,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>306</v>
       </c>
@@ -6363,7 +6380,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>297</v>
       </c>
@@ -6383,7 +6400,7 @@
         <v>138221</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E7" s="4">
         <v>1849</v>
       </c>
@@ -6394,7 +6411,7 @@
         <v>39621</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E8" s="4">
         <v>1850</v>
       </c>
@@ -6405,7 +6422,7 @@
         <v>123642</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -6425,7 +6442,7 @@
         <v>118922</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>146</v>
       </c>
@@ -6445,7 +6462,7 @@
         <v>123766</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -6465,7 +6482,7 @@
         <v>392471</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -6485,7 +6502,7 @@
         <v>412493</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>56</v>
       </c>
@@ -6505,7 +6522,7 @@
         <v>103425</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -6525,7 +6542,7 @@
         <v>297285</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -6545,7 +6562,7 @@
         <v>81185</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -6565,7 +6582,7 @@
         <v>35763</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -6585,7 +6602,7 @@
         <v>454039</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
@@ -6605,7 +6622,7 @@
         <v>89389</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -6625,7 +6642,7 @@
         <v>124483</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>297</v>
       </c>
@@ -6645,7 +6662,7 @@
         <v>116965</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E21" s="4">
         <v>1871</v>
       </c>
@@ -6656,7 +6673,7 @@
         <v>11833</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E22" s="4">
         <v>1873</v>
       </c>
@@ -6667,7 +6684,7 @@
         <v>58512</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E23" s="4">
         <v>1874</v>
       </c>
@@ -6678,7 +6695,7 @@
         <v>30761</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>278</v>
       </c>
@@ -6698,7 +6715,7 @@
         <v>29493</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>294</v>
       </c>
@@ -6718,7 +6735,7 @@
         <v>38664</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>283</v>
       </c>
@@ -6738,7 +6755,7 @@
         <v>94319</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>295</v>
       </c>
@@ -6758,7 +6775,7 @@
         <v>104698</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>289</v>
       </c>
@@ -6778,7 +6795,7 @@
         <v>29687</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>288</v>
       </c>
@@ -6798,7 +6815,7 @@
         <v>434271</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>296</v>
       </c>
@@ -6818,7 +6835,7 @@
         <v>163752</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>293</v>
       </c>
@@ -6838,7 +6855,7 @@
         <v>67545</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>284</v>
       </c>
@@ -6858,7 +6875,7 @@
         <v>43337</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>282</v>
       </c>
@@ -6878,7 +6895,7 @@
         <v>91543</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>286</v>
       </c>
@@ -6898,7 +6915,7 @@
         <v>162760</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>281</v>
       </c>
@@ -6918,7 +6935,7 @@
         <v>84128</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>290</v>
       </c>
@@ -6938,7 +6955,7 @@
         <v>98080</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>285</v>
       </c>
@@ -6958,7 +6975,7 @@
         <v>120475</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>291</v>
       </c>
@@ -6978,7 +6995,7 @@
         <v>190886</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>287</v>
       </c>
@@ -6998,7 +7015,7 @@
         <v>81660</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>280</v>
       </c>
@@ -7018,7 +7035,7 @@
         <v>166094</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>292</v>
       </c>
@@ -7038,7 +7055,7 @@
         <v>194545</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>279</v>
       </c>
@@ -7058,7 +7075,7 @@
         <v>54417</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>297</v>
       </c>
@@ -7078,7 +7095,7 @@
         <v>118688</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E44" s="4">
         <v>1897</v>
       </c>
@@ -7089,7 +7106,7 @@
         <v>155182</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E45" s="4">
         <v>1898</v>
       </c>
@@ -7100,7 +7117,7 @@
         <v>64203</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E46" s="4">
         <v>1900</v>
       </c>
@@ -7111,7 +7128,7 @@
         <v>96048</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
@@ -7131,7 +7148,7 @@
         <v>295131</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>13</v>
       </c>
@@ -7151,7 +7168,7 @@
         <v>153761</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>16</v>
       </c>
@@ -7171,7 +7188,7 @@
         <v>74010</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>123</v>
       </c>
@@ -7191,7 +7208,7 @@
         <v>160796</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>246</v>
       </c>
@@ -7211,7 +7228,7 @@
         <v>48372</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>297</v>
       </c>
@@ -7231,7 +7248,7 @@
         <v>67983</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="E53" s="4">
@@ -7244,7 +7261,7 @@
         <v>268948</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="E54" s="4">
@@ -7257,7 +7274,7 @@
         <v>255940</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E55" s="4">
         <v>1915</v>
       </c>
@@ -7268,7 +7285,7 @@
         <v>65817</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="13"/>
       <c r="B56" s="14" t="s">
         <v>301</v>
@@ -7283,7 +7300,7 @@
         <v>45665</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>302</v>
       </c>
@@ -7302,7 +7319,7 @@
         <v>95903</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>303</v>
       </c>
@@ -7321,7 +7338,7 @@
         <v>104855</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
         <v>304</v>
       </c>
@@ -7340,7 +7357,7 @@
         <v>138580</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -7355,25 +7372,25 @@
         <v>7451961</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -7382,293 +7399,293 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
     </row>

--- a/Eltec100/Eltec-metadataFLO03122021_revAT.xlsx
+++ b/Eltec100/Eltec-metadataFLO03122021_revAT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flo-f\Documents\GitHub\ExSTRA\Eltec100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF3D469-CFCB-4D90-89FC-860D9FB1FC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421BC048-9960-43FF-8E27-3855B9B17011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="308">
   <si>
     <t>filename</t>
   </si>
@@ -112,15 +112,6 @@
     <t>1870_1879</t>
   </si>
   <si>
-    <t>Battaglia-Giacinto_La-lega-lombarda_1834.txt</t>
-  </si>
-  <si>
-    <t>Battaglia, Giacinto</t>
-  </si>
-  <si>
-    <t>La lega lombarda</t>
-  </si>
-  <si>
     <t>1830_1839</t>
   </si>
   <si>
@@ -463,9 +454,6 @@
     <t>La trovatella di Milano</t>
   </si>
   <si>
-    <t>Manzoni-Alessandro_I-promessi-sposi_1826.txt</t>
-  </si>
-  <si>
     <t>Manzoni, Alessandro</t>
   </si>
   <si>
@@ -652,15 +640,9 @@
     <t>Mater dolorosa</t>
   </si>
   <si>
-    <t>Ruffini-Giovanni_Il-dottor-Antonio_1856.txt</t>
-  </si>
-  <si>
     <t>Ruffini, Giovanni</t>
   </si>
   <si>
-    <t>Il dottor Antonio</t>
-  </si>
-  <si>
     <t>Ruffini-Giovanni_Lorenzo-Benoni_1853.txt</t>
   </si>
   <si>
@@ -953,6 +935,27 @@
   </si>
   <si>
     <t>uomo</t>
+  </si>
+  <si>
+    <t>Manzoni-Alessandro_I-promessi-sposi_1840.txt</t>
+  </si>
+  <si>
+    <t>Emiliani Giudici, Paolo</t>
+  </si>
+  <si>
+    <t>Beppe Arpia</t>
+  </si>
+  <si>
+    <t>EmilianiGiudici-Paolo_Beppe-Arpia_1851.txt</t>
+  </si>
+  <si>
+    <t>Gualtieri-Lorenzo_La-Biscia-Dei-Visconti_1858.txt</t>
+  </si>
+  <si>
+    <t>Gualtieri, Lorenzo</t>
+  </si>
+  <si>
+    <t>La biscia dei Visconti</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1023,9 +1026,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3249,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3258,40 +3258,40 @@
     <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3305,22 +3305,22 @@
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>1919</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H2" s="8">
+        <v>273</v>
+      </c>
+      <c r="H2" s="7">
         <v>21527</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3334,22 +3334,22 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>1907</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>47</v>
+      <c r="F3" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H3" s="8">
+        <v>274</v>
+      </c>
+      <c r="H3" s="7">
         <v>58812</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3363,22 +3363,22 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>1883</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H4" s="8">
+        <v>275</v>
+      </c>
+      <c r="H4" s="7">
         <v>16683</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3392,167 +3392,167 @@
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>1871</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="H5" s="8">
+        <v>276</v>
+      </c>
+      <c r="H5" s="7">
         <v>11833</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="8">
-        <v>1834</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="H6" s="8">
-        <v>22935</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>13</v>
+      <c r="E6" s="7">
+        <v>1868</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" s="7">
+        <v>89389</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="8">
-        <v>1868</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>33</v>
+      <c r="E7" s="7">
+        <v>1869</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H7" s="8">
-        <v>89389</v>
-      </c>
-      <c r="I7" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" s="7">
+        <v>68717</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="8">
-        <v>1869</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>33</v>
+      <c r="E8" s="7">
+        <v>1891</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H8" s="8">
-        <v>68717</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>16</v>
+        <v>279</v>
+      </c>
+      <c r="H8" s="7">
+        <v>30637</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="8">
-        <v>1891</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>39</v>
+      <c r="E9" s="7">
+        <v>1883</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H9" s="8">
-        <v>30637</v>
-      </c>
-      <c r="I9" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" s="7">
+        <v>10830</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="8">
-        <v>1883</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>20</v>
+      <c r="E10" s="7">
+        <v>1879</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H10" s="8">
-        <v>10830</v>
-      </c>
-      <c r="I10" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H10" s="7">
+        <v>46164</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3561,28 +3561,28 @@
         <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1901</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1879</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H11" s="8">
-        <v>46164</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>13</v>
+        <v>281</v>
+      </c>
+      <c r="H11" s="7">
+        <v>70151</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3590,56 +3590,56 @@
         <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="8">
-        <v>1901</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>47</v>
+      <c r="E12" s="7">
+        <v>1892</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H12" s="8">
-        <v>70151</v>
-      </c>
-      <c r="I12" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" s="7">
+        <v>55723</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1892</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>39</v>
+      <c r="D13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1864</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H13" s="8">
-        <v>55723</v>
-      </c>
-      <c r="I13" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H13" s="7">
+        <v>81185</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3653,52 +3653,52 @@
       <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1864</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>33</v>
+      <c r="D14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1850</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H14" s="8">
-        <v>81185</v>
-      </c>
-      <c r="I14" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H14" s="7">
+        <v>123642</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="8">
-        <v>1850</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="7">
+        <v>1849</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="H15" s="8">
-        <v>123642</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>16</v>
+        <v>283</v>
+      </c>
+      <c r="H15" s="7">
+        <v>39621</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3706,27 +3706,27 @@
         <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1849</v>
-      </c>
-      <c r="F16" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1884</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="G16" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H16" s="8">
-        <v>39621</v>
-      </c>
-      <c r="I16" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H16" s="7">
+        <v>43337</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3740,22 +3740,22 @@
       <c r="C17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1884</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="D17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1883</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H17" s="8">
-        <v>43337</v>
-      </c>
-      <c r="I17" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H17" s="7">
+        <v>40032</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3769,23 +3769,23 @@
       <c r="C18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="8">
-        <v>1883</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>20</v>
+      <c r="E18" s="7">
+        <v>1900</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H18" s="8">
-        <v>40032</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>13</v>
+      <c r="H18" s="7">
+        <v>96048</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3793,85 +3793,85 @@
         <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="8">
-        <v>1900</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>47</v>
+      <c r="E19" s="7">
+        <v>1889</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H19" s="8">
-        <v>96048</v>
-      </c>
-      <c r="I19" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H19" s="7">
+        <v>100426</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="8">
-        <v>1889</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>20</v>
+      <c r="E20" s="7">
+        <v>1895</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H20" s="8">
-        <v>100426</v>
-      </c>
-      <c r="I20" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="H20" s="7">
+        <v>54417</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="8">
-        <v>1895</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>39</v>
+      <c r="E21" s="7">
+        <v>1886</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H21" s="8">
-        <v>54417</v>
-      </c>
-      <c r="I21" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H21" s="7">
+        <v>79245</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       <c r="C22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="8">
-        <v>1886</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>20</v>
+      <c r="D22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1913</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H22" s="8">
-        <v>79245</v>
-      </c>
-      <c r="I22" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H22" s="7">
+        <v>58130</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3909,85 +3909,85 @@
         <v>76</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="8">
-        <v>1913</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="E23" s="7">
+        <v>1920</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H23" s="8">
-        <v>58130</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>16</v>
+        <v>273</v>
+      </c>
+      <c r="H23" s="7">
+        <v>34211</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="8">
-        <v>1920</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>12</v>
+      <c r="E24" s="7">
+        <v>1896</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H24" s="8">
-        <v>34211</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>13</v>
+        <v>285</v>
+      </c>
+      <c r="H24" s="7">
+        <v>63338</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1896</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>39</v>
+      <c r="D25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1890</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H25" s="8">
-        <v>63338</v>
-      </c>
-      <c r="I25" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="7">
+        <v>93479</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3996,86 +3996,86 @@
         <v>83</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="8">
-        <v>1890</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>39</v>
+      <c r="E26" s="7">
+        <v>1897</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H26" s="8">
-        <v>93479</v>
-      </c>
-      <c r="I26" s="8" t="s">
+      <c r="H26" s="7">
+        <v>88656</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="8">
-        <v>1897</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>39</v>
+      <c r="E27" s="7">
+        <v>1888</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H27" s="8">
-        <v>88656</v>
-      </c>
-      <c r="I27" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H27" s="7">
+        <v>54545</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="8">
-        <v>1888</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>20</v>
+      <c r="E28" s="7">
+        <v>1894</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H28" s="8">
-        <v>54545</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>16</v>
+        <v>279</v>
+      </c>
+      <c r="H28" s="7">
+        <v>194545</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -4083,57 +4083,57 @@
         <v>90</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="8">
-        <v>1894</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>39</v>
+      <c r="E29" s="7">
+        <v>1890</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H29" s="8">
-        <v>194545</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>123</v>
+        <v>279</v>
+      </c>
+      <c r="H29" s="7">
+        <v>31125</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="8">
-        <v>1890</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>39</v>
+      <c r="D30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1903</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H30" s="8">
-        <v>31125</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>13</v>
+        <v>281</v>
+      </c>
+      <c r="H30" s="7">
+        <v>50362</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -4141,57 +4141,57 @@
         <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="8">
-        <v>1903</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>47</v>
+      <c r="E31" s="7">
+        <v>1912</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H31" s="8">
-        <v>50362</v>
-      </c>
-      <c r="I31" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H31" s="7">
+        <v>58431</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="8">
-        <v>1912</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>12</v>
+      <c r="D32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1874</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H32" s="8">
-        <v>58431</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>16</v>
+        <v>276</v>
+      </c>
+      <c r="H32" s="7">
+        <v>15132</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -4199,1999 +4199,1989 @@
         <v>100</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="8">
-        <v>1874</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="E33" s="7">
+        <v>1873</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="H33" s="8">
-        <v>15132</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>13</v>
+        <v>276</v>
+      </c>
+      <c r="H33" s="7">
+        <v>58512</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>103</v>
+        <v>304</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>302</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="8">
-        <v>1873</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="H34" s="8">
-        <v>58512</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="E34" s="7">
+        <v>1851</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <v>1874</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="H35" s="8">
+        <v>276</v>
+      </c>
+      <c r="H35" s="7">
         <v>15629</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <v>1885</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H36" s="8">
+        <v>284</v>
+      </c>
+      <c r="H36" s="7">
         <v>91543</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <v>1881</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H37" s="8">
+        <v>275</v>
+      </c>
+      <c r="H37" s="7">
         <v>136461</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <v>1901</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>47</v>
+      <c r="F38" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H38" s="8">
+        <v>281</v>
+      </c>
+      <c r="H38" s="7">
         <v>86570</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <v>1870</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="H39" s="8">
+        <v>276</v>
+      </c>
+      <c r="H39" s="7">
         <v>46751</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="7">
         <v>1870</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="H40" s="8">
+        <v>276</v>
+      </c>
+      <c r="H40" s="7">
         <v>70214</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>120</v>
+        <v>305</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>306</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="8">
-        <v>1863</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>33</v>
+      <c r="E41" s="7">
+        <v>1858</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H41" s="8">
-        <v>297285</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>123</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="8">
-        <v>1860</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>33</v>
+      <c r="E42" s="7">
+        <v>1863</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H42" s="8">
-        <v>189277</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>123</v>
+        <v>287</v>
+      </c>
+      <c r="H42" s="7">
+        <v>297285</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="8">
-        <v>1915</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>12</v>
+        <v>122</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1860</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H43" s="8">
-        <v>65817</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>16</v>
+        <v>287</v>
+      </c>
+      <c r="H43" s="7">
+        <v>189277</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="8">
-        <v>1920</v>
-      </c>
-      <c r="F44" s="8" t="s">
+      <c r="E44" s="7">
+        <v>1915</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H44" s="8">
-        <v>42777</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>13</v>
+        <v>273</v>
+      </c>
+      <c r="H44" s="7">
+        <v>65817</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="8">
-        <v>1919</v>
-      </c>
-      <c r="F45" s="8" t="s">
+      <c r="E45" s="7">
+        <v>1920</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H45" s="8">
-        <v>30149</v>
-      </c>
-      <c r="I45" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H45" s="7">
+        <v>42777</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="8">
-        <v>1876</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>25</v>
+        <v>129</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1919</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H46" s="8">
-        <v>38664</v>
-      </c>
-      <c r="I46" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H46" s="7">
+        <v>30149</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="8">
-        <v>1886</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>20</v>
+        <v>132</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1876</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H47" s="8">
-        <v>83515</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>16</v>
+        <v>280</v>
+      </c>
+      <c r="H47" s="7">
+        <v>38664</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="8">
-        <v>1901</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>47</v>
+      <c r="E48" s="7">
+        <v>1886</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H48" s="8">
-        <v>86010</v>
-      </c>
-      <c r="I48" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H48" s="7">
+        <v>83515</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D49" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="8">
-        <v>1889</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>20</v>
+      <c r="E49" s="7">
+        <v>1901</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H49" s="8">
-        <v>20049</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>13</v>
+        <v>281</v>
+      </c>
+      <c r="H49" s="7">
+        <v>86010</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="8">
-        <v>1826</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1889</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H50" s="8">
-        <v>216014</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>123</v>
+        <v>284</v>
+      </c>
+      <c r="H50" s="7">
+        <v>20049</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>147</v>
+        <v>301</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="7">
         <v>1840</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>59</v>
+      <c r="F51" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H51" s="8">
-        <v>34815</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>13</v>
+        <v>289</v>
+      </c>
+      <c r="H51" s="7">
+        <v>216014</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="8">
-        <v>1881</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>20</v>
+        <v>144</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="7">
+        <v>1840</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H52" s="8">
-        <v>56374</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>16</v>
+        <v>289</v>
+      </c>
+      <c r="H52" s="7">
+        <v>34815</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="8">
-        <v>1908</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>47</v>
+      <c r="E53" s="7">
+        <v>1881</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H53" s="8">
-        <v>48372</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>13</v>
+        <v>275</v>
+      </c>
+      <c r="H53" s="7">
+        <v>56374</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="8">
-        <v>1888</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>20</v>
+      <c r="E54" s="7">
+        <v>1908</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H54" s="8">
-        <v>43535</v>
-      </c>
-      <c r="I54" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H54" s="7">
+        <v>48372</v>
+      </c>
+      <c r="I54" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="8">
-        <v>1903</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>47</v>
+      <c r="E55" s="7">
+        <v>1888</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H55" s="8">
-        <v>52032</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>16</v>
+        <v>284</v>
+      </c>
+      <c r="H55" s="7">
+        <v>43535</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="8">
-        <v>1880</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>20</v>
+      <c r="E56" s="7">
+        <v>1903</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H56" s="8">
-        <v>29687</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>13</v>
+      <c r="H56" s="7">
+        <v>52032</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D57" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="8">
-        <v>1917</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>12</v>
+      <c r="E57" s="7">
+        <v>1880</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H57" s="8">
-        <v>45665</v>
-      </c>
-      <c r="I57" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H57" s="7">
+        <v>29687</v>
+      </c>
+      <c r="I57" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="8">
-        <v>1860</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>33</v>
+        <v>160</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="7">
+        <v>1917</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H58" s="8">
-        <v>50969</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>16</v>
+        <v>273</v>
+      </c>
+      <c r="H58" s="7">
+        <v>45665</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D59" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="8">
-        <v>1867</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>33</v>
+      <c r="E59" s="7">
+        <v>1860</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H59" s="8">
-        <v>315978</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>123</v>
+        <v>287</v>
+      </c>
+      <c r="H59" s="7">
+        <v>50969</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D60" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="8">
-        <v>1877</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>25</v>
+      <c r="E60" s="7">
+        <v>1867</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H60" s="8">
-        <v>94319</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>16</v>
+        <v>278</v>
+      </c>
+      <c r="H60" s="7">
+        <v>315978</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D61" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="8">
-        <v>1881</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>20</v>
+      <c r="E61" s="7">
+        <v>1877</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H61" s="8">
-        <v>90878</v>
-      </c>
-      <c r="I61" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H61" s="7">
+        <v>94319</v>
+      </c>
+      <c r="I61" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="8">
-        <v>1891</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>39</v>
+        <v>170</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="7">
+        <v>1881</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H62" s="8">
-        <v>51023</v>
-      </c>
-      <c r="I62" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H62" s="7">
+        <v>90878</v>
+      </c>
+      <c r="I62" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63" s="8">
-        <v>1890</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>39</v>
+        <v>173</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1891</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H63" s="8">
-        <v>66282</v>
-      </c>
-      <c r="I63" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="H63" s="7">
+        <v>51023</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D64" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="8">
-        <v>1867</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>33</v>
+      <c r="E64" s="7">
+        <v>1890</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H64" s="8">
-        <v>138061</v>
-      </c>
-      <c r="I64" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="H64" s="7">
+        <v>66282</v>
+      </c>
+      <c r="I64" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D65" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="8">
-        <v>1862</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>33</v>
+      <c r="E65" s="7">
+        <v>1867</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H65" s="8">
-        <v>41651</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>13</v>
+        <v>278</v>
+      </c>
+      <c r="H65" s="7">
+        <v>138061</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="8">
-        <v>1904</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>47</v>
+      <c r="E66" s="7">
+        <v>1862</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="H66" s="8">
-        <v>74010</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>16</v>
+      <c r="H66" s="7">
+        <v>41651</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="8">
-        <v>1913</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>12</v>
+      <c r="E67" s="7">
+        <v>1904</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H67" s="8">
-        <v>142258</v>
-      </c>
-      <c r="I67" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H67" s="7">
+        <v>74010</v>
+      </c>
+      <c r="I67" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D68" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="8">
-        <v>1901</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>47</v>
+      <c r="E68" s="7">
+        <v>1913</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H68" s="8">
-        <v>52400</v>
-      </c>
-      <c r="I68" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H68" s="7">
+        <v>142258</v>
+      </c>
+      <c r="I68" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D69" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="8">
-        <v>1881</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>20</v>
+      <c r="E69" s="7">
+        <v>1901</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H69" s="8">
-        <v>65311</v>
-      </c>
-      <c r="I69" s="8" t="s">
+      <c r="H69" s="7">
+        <v>52400</v>
+      </c>
+      <c r="I69" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D70" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="8">
-        <v>1862</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>33</v>
+      <c r="E70" s="7">
+        <v>1881</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H70" s="8">
-        <v>61774</v>
-      </c>
-      <c r="I70" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H70" s="7">
+        <v>65311</v>
+      </c>
+      <c r="I70" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D71" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E71" s="8">
-        <v>1859</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>56</v>
+      <c r="E71" s="7">
+        <v>1862</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H71" s="8">
-        <v>392471</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>123</v>
+        <v>287</v>
+      </c>
+      <c r="H71" s="7">
+        <v>61774</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D72" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="8">
-        <v>1903</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>47</v>
+      <c r="E72" s="7">
+        <v>1859</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H72" s="8">
-        <v>51367</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>16</v>
+        <v>290</v>
+      </c>
+      <c r="H72" s="7">
+        <v>392471</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D73" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="8">
-        <v>1882</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>20</v>
+      <c r="E73" s="7">
+        <v>1903</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H73" s="8">
-        <v>120581</v>
-      </c>
-      <c r="I73" s="8" t="s">
+      <c r="H73" s="7">
+        <v>51367</v>
+      </c>
+      <c r="I73" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D74" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="8">
-        <v>1856</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>56</v>
+      <c r="E74" s="7">
+        <v>1882</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H74" s="8">
-        <v>123766</v>
-      </c>
-      <c r="I74" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H74" s="7">
+        <v>120581</v>
+      </c>
+      <c r="I74" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D75" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="7">
         <v>1853</v>
       </c>
-      <c r="F75" s="8" t="s">
-        <v>56</v>
+      <c r="F75" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="H75" s="8">
+        <v>282</v>
+      </c>
+      <c r="H75" s="7">
         <v>118922</v>
       </c>
-      <c r="I75" s="8" t="s">
+      <c r="I75" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D76" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="7">
         <v>1907</v>
       </c>
-      <c r="F76" s="8" t="s">
-        <v>47</v>
+      <c r="F76" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H76" s="8">
+        <v>274</v>
+      </c>
+      <c r="H76" s="7">
         <v>101984</v>
       </c>
-      <c r="I76" s="8" t="s">
+      <c r="I76" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D77" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="7">
         <v>1887</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H77" s="8">
+        <v>284</v>
+      </c>
+      <c r="H77" s="7">
         <v>69461</v>
       </c>
-      <c r="I77" s="8" t="s">
+      <c r="I77" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D78" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="7">
         <v>1896</v>
       </c>
-      <c r="F78" s="8" t="s">
-        <v>39</v>
+      <c r="F78" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H78" s="8">
+        <v>285</v>
+      </c>
+      <c r="H78" s="7">
         <v>55350</v>
       </c>
-      <c r="I78" s="8" t="s">
+      <c r="I78" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D79" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="7">
         <v>1881</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H79" s="8">
+        <v>275</v>
+      </c>
+      <c r="H79" s="7">
         <v>85247</v>
       </c>
-      <c r="I79" s="8" t="s">
+      <c r="I79" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D80" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="7">
         <v>1879</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H80" s="8">
+        <v>280</v>
+      </c>
+      <c r="H80" s="7">
         <v>58534</v>
       </c>
-      <c r="I80" s="8" t="s">
+      <c r="I80" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D81" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="7">
         <v>1912</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H81" s="8">
+        <v>286</v>
+      </c>
+      <c r="H81" s="7">
         <v>103516</v>
       </c>
-      <c r="I81" s="8" t="s">
+      <c r="I81" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D82" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E82" s="7">
         <v>1840</v>
       </c>
-      <c r="F82" s="8" t="s">
-        <v>59</v>
+      <c r="F82" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H82" s="8">
+        <v>289</v>
+      </c>
+      <c r="H82" s="7">
         <v>57212</v>
       </c>
-      <c r="I82" s="8" t="s">
+      <c r="I82" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D83" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="7">
         <v>1912</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H83" s="8">
+        <v>286</v>
+      </c>
+      <c r="H83" s="7">
         <v>26879</v>
       </c>
-      <c r="I83" s="8" t="s">
+      <c r="I83" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D84" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E84" s="7">
         <v>1923</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H84" s="8">
+        <v>273</v>
+      </c>
+      <c r="H84" s="7">
         <v>138580</v>
       </c>
-      <c r="I84" s="8" t="s">
+      <c r="I84" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D85" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85" s="7">
         <v>1898</v>
       </c>
-      <c r="F85" s="8" t="s">
-        <v>39</v>
+      <c r="F85" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H85" s="8">
+        <v>285</v>
+      </c>
+      <c r="H85" s="7">
         <v>64203</v>
       </c>
-      <c r="I85" s="8" t="s">
+      <c r="I85" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D86" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E86" s="7">
         <v>1892</v>
       </c>
-      <c r="F86" s="8" t="s">
-        <v>39</v>
+      <c r="F86" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H86" s="8">
+        <v>279</v>
+      </c>
+      <c r="H86" s="7">
         <v>110371</v>
       </c>
-      <c r="I86" s="8" t="s">
+      <c r="I86" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D87" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E87" s="7">
         <v>1869</v>
       </c>
-      <c r="F87" s="8" t="s">
-        <v>33</v>
+      <c r="F87" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H87" s="8">
+        <v>278</v>
+      </c>
+      <c r="H87" s="7">
         <v>55766</v>
       </c>
-      <c r="I87" s="8" t="s">
+      <c r="I87" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D88" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E88" s="7">
         <v>1909</v>
       </c>
-      <c r="F88" s="8" t="s">
-        <v>47</v>
+      <c r="F88" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H88" s="8">
+        <v>274</v>
+      </c>
+      <c r="H88" s="7">
         <v>67983</v>
       </c>
-      <c r="I88" s="8" t="s">
+      <c r="I88" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D89" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89" s="7">
         <v>1912</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H89" s="8">
+        <v>286</v>
+      </c>
+      <c r="H89" s="7">
         <v>9721</v>
       </c>
-      <c r="I89" s="8" t="s">
-        <v>246</v>
+      <c r="I89" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E90" s="7">
         <v>1887</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="H90" s="8">
+        <v>284</v>
+      </c>
+      <c r="H90" s="7">
         <v>14667</v>
       </c>
-      <c r="I90" s="8" t="s">
+      <c r="I90" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D91" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E91" s="7">
         <v>1840</v>
       </c>
-      <c r="F91" s="8" t="s">
-        <v>59</v>
+      <c r="F91" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H91" s="8">
+        <v>289</v>
+      </c>
+      <c r="H91" s="7">
         <v>46194</v>
       </c>
-      <c r="I91" s="8" t="s">
+      <c r="I91" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D92" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E92" s="7">
         <v>1860</v>
       </c>
-      <c r="F92" s="8" t="s">
-        <v>33</v>
+      <c r="F92" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H92" s="8">
+        <v>287</v>
+      </c>
+      <c r="H92" s="7">
         <v>172247</v>
       </c>
-      <c r="I92" s="8" t="s">
-        <v>123</v>
+      <c r="I92" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D93" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E93" s="7">
         <v>1919</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H93" s="8">
+        <v>273</v>
+      </c>
+      <c r="H93" s="7">
         <v>44227</v>
       </c>
-      <c r="I93" s="8" t="s">
+      <c r="I93" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D94" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E94" s="7">
         <v>1920</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H94" s="8">
+        <v>273</v>
+      </c>
+      <c r="H94" s="7">
         <v>27867</v>
       </c>
-      <c r="I94" s="8" t="s">
+      <c r="I94" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D95" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E95" s="8">
+      <c r="E95" s="7">
         <v>1912</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H95" s="8">
+        <v>286</v>
+      </c>
+      <c r="H95" s="7">
         <v>70401</v>
       </c>
-      <c r="I95" s="8" t="s">
+      <c r="I95" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D96" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E96" s="7">
         <v>1882</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H96" s="8">
+        <v>275</v>
+      </c>
+      <c r="H96" s="7">
         <v>43171</v>
       </c>
-      <c r="I96" s="8" t="s">
+      <c r="I96" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D97" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E97" s="8">
+      <c r="E97" s="7">
         <v>1875</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H97" s="8">
+        <v>280</v>
+      </c>
+      <c r="H97" s="7">
         <v>29493</v>
       </c>
-      <c r="I97" s="8" t="s">
+      <c r="I97" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D98" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E98" s="8">
+      <c r="E98" s="7">
         <v>1866</v>
       </c>
-      <c r="F98" s="8" t="s">
-        <v>33</v>
+      <c r="F98" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H98" s="8">
+        <v>278</v>
+      </c>
+      <c r="H98" s="7">
         <v>35763</v>
       </c>
-      <c r="I98" s="8" t="s">
+      <c r="I98" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D99" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E99" s="8">
+      <c r="E99" s="7">
         <v>1897</v>
       </c>
-      <c r="F99" s="8" t="s">
-        <v>39</v>
+      <c r="F99" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H99" s="8">
+        <v>285</v>
+      </c>
+      <c r="H99" s="7">
         <v>27215</v>
       </c>
-      <c r="I99" s="8" t="s">
+      <c r="I99" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D100" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E100" s="8">
+      <c r="E100" s="7">
         <v>1913</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="H100" s="8">
+        <v>286</v>
+      </c>
+      <c r="H100" s="7">
         <v>55552</v>
       </c>
-      <c r="I100" s="8" t="s">
+      <c r="I100" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D101" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E101" s="8">
+      <c r="E101" s="7">
         <v>1897</v>
       </c>
-      <c r="F101" s="8" t="s">
-        <v>39</v>
+      <c r="F101" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H101" s="8">
+        <v>285</v>
+      </c>
+      <c r="H101" s="7">
         <v>39311</v>
       </c>
-      <c r="I101" s="8" t="s">
+      <c r="I101" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6320,27 +6310,27 @@
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B4" s="5">
         <v>30</v>
@@ -6361,7 +6351,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B5" s="5">
         <v>70</v>
@@ -6382,7 +6372,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B6" s="5">
         <v>100</v>
@@ -6427,10 +6417,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E9" s="4">
         <v>1853</v>
@@ -6444,7 +6434,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -6464,7 +6454,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -6484,7 +6474,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5">
         <v>4</v>
@@ -6504,7 +6494,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="5">
         <v>4</v>
@@ -6524,7 +6514,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5">
         <v>13</v>
@@ -6584,7 +6574,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="5">
         <v>15</v>
@@ -6604,7 +6594,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="5">
         <v>13</v>
@@ -6644,7 +6634,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B20" s="5">
         <v>100</v>
@@ -6697,13 +6687,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B24" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C24" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E24" s="4">
         <v>1875</v>
@@ -6717,7 +6707,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
@@ -6737,7 +6727,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -6757,7 +6747,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B27" s="5">
         <v>3</v>
@@ -6777,7 +6767,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
@@ -6797,7 +6787,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B29" s="5">
         <v>2</v>
@@ -6817,7 +6807,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B30" s="5">
         <v>2</v>
@@ -6837,7 +6827,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B31" s="5">
         <v>7</v>
@@ -6857,7 +6847,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B32" s="5">
         <v>6</v>
@@ -6877,7 +6867,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B33" s="5">
         <v>6</v>
@@ -6897,7 +6887,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B34" s="5">
         <v>5</v>
@@ -6917,7 +6907,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B35" s="5">
         <v>12</v>
@@ -6937,7 +6927,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B36" s="5">
         <v>9</v>
@@ -6957,7 +6947,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B37" s="5">
         <v>8</v>
@@ -6977,7 +6967,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B38" s="5">
         <v>7</v>
@@ -6997,7 +6987,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B39" s="5">
         <v>9</v>
@@ -7017,7 +7007,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B40" s="5">
         <v>4</v>
@@ -7037,7 +7027,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B41" s="5">
         <v>8</v>
@@ -7057,7 +7047,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B42" s="5">
         <v>9</v>
@@ -7077,7 +7067,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B43" s="5">
         <v>100</v>
@@ -7133,10 +7123,10 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C47" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E47" s="4">
         <v>1901</v>
@@ -7190,7 +7180,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B50" s="5">
         <v>7</v>
@@ -7210,7 +7200,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B51" s="5">
         <v>1</v>
@@ -7230,7 +7220,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B52" s="5">
         <v>100</v>
@@ -7286,9 +7276,9 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14" t="s">
-        <v>301</v>
+      <c r="A56" s="12"/>
+      <c r="B56" s="13" t="s">
+        <v>295</v>
       </c>
       <c r="E56" s="4">
         <v>1917</v>
@@ -7302,9 +7292,9 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>302</v>
-      </c>
-      <c r="B57" s="9">
+        <v>296</v>
+      </c>
+      <c r="B57" s="8">
         <v>16</v>
       </c>
       <c r="C57" s="5"/>
@@ -7321,9 +7311,9 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>303</v>
-      </c>
-      <c r="B58" s="9">
+        <v>297</v>
+      </c>
+      <c r="B58" s="8">
         <v>38</v>
       </c>
       <c r="C58" s="5"/>
@@ -7339,10 +7329,10 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B59" s="16">
+      <c r="A59" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B59" s="15">
         <v>54</v>
       </c>
       <c r="C59" s="5"/>
@@ -7363,7 +7353,7 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F60" s="5">
         <v>100</v>
